--- a/checkPoint.xlsx
+++ b/checkPoint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKCC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo (3)\order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>Check Point</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,94 @@
   </si>
   <si>
     <t>????</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의실예약 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사내직원인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noti.(메일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noti.(SMS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트스토밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트스토밍 그리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS 계정 만들고, 세팅(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록, 법카올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림서비스(메일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자관리 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의실관리 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의실 예약관리 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github repository 만들고 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github 공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강성일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정리한거 올려주고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태곤, 정선, 승헌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws 전체계정 / 법카등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aws 개인계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,7 +432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,56 +549,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,26 +889,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E65"/>
+  <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="I23" sqref="G21:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="106.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="109.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>63</v>
       </c>
@@ -819,651 +925,726 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="20"/>
+      <c r="C10" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="24"/>
+    </row>
+    <row r="14" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="12" t="s">
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="24"/>
+    </row>
+    <row r="15" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="13"/>
+      <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="13"/>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="13"/>
+      <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="13"/>
+      <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15" t="s">
+      <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="14"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="9" t="s">
+      <c r="E21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="15" t="s">
+      <c r="E25" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="15" t="s">
+      <c r="E27" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="8" t="s">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B29" s="15"/>
+      <c r="C29" s="14" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="19" t="s">
+      <c r="E29" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="19" t="s">
+      <c r="E30" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="19" t="s">
+      <c r="E31" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="19" t="s">
+      <c r="E34" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="15" t="s">
+      <c r="E35" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="19" t="s">
+      <c r="E37" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="15"/>
+      <c r="C39" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="19" t="s">
+      <c r="E39" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+    <row r="41" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="15"/>
       <c r="C41" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
+    <row r="42" spans="2:5" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B42" s="15"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="15"/>
+      <c r="C43" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="19" t="s">
+      <c r="E44" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="15"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="19" t="s">
+      <c r="E46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" s="13" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="19" t="s">
+      <c r="E47" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="15"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="19" t="s">
+      <c r="E48" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="19" t="s">
+      <c r="E49" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="19" t="s">
+      <c r="E50" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="19" t="s">
+      <c r="E51" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="15"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="19" t="s">
+      <c r="E52" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="15"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="15" t="s">
+      <c r="E53" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="15"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="15" t="s">
+    <row r="55" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="15"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="15" t="s">
+    <row r="56" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="15"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="15" t="s">
+    <row r="57" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="15"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="15" t="s">
+    <row r="58" spans="2:5" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B58" s="15"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="14" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="15" t="s">
+      <c r="E59" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="15"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="2:5" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B61" s="10"/>
-      <c r="C61" s="18" t="s">
+    <row r="61" spans="2:5" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B61" s="15"/>
+      <c r="C61" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="15" t="s">
+    <row r="62" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="15"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="15" t="s">
+    <row r="63" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="15" t="s">
+    <row r="64" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="15"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="2:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="15" t="s">
+    <row r="65" spans="2:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="9" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B46:B65"/>
-    <mergeCell ref="C46:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C65"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="C5:C9"/>
@@ -1474,6 +1655,11 @@
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B46:B65"/>
+    <mergeCell ref="C46:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
